--- a/data/brief/briefSchool/Teachers/b_5-6_S.xlsx
+++ b/data/brief/briefSchool/Teachers/b_5-6_S.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Layosh_shares\breif\breifSchool\Teachers\exel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A433174-8C1B-4192-914F-85C594CA5DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,14 +46,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +71,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -82,20 +90,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -106,10 +126,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -147,71 +167,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -235,50 +255,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -288,7 +311,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -297,7 +320,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -306,7 +329,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -314,10 +337,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -346,7 +369,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -359,13 +382,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -377,732 +399,683 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>72</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>97</v>
       </c>
-      <c r="G2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3">
         <v>88</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="3">
         <v>89</v>
       </c>
-      <c r="J2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>29</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>71</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>94</v>
       </c>
-      <c r="G3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3">
         <v>85</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="3">
         <v>87</v>
       </c>
-      <c r="J3">
+      <c r="H3" s="1"/>
+      <c r="I3" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>28</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>69</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>91</v>
       </c>
-      <c r="G4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
         <v>83</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="3">
         <v>84</v>
       </c>
-      <c r="J4">
+      <c r="H4" s="1"/>
+      <c r="I4" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>27</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>68</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>89</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>92</v>
       </c>
-      <c r="E5">
-        <v>99</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
         <v>81</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="3">
         <v>82</v>
       </c>
-      <c r="J5">
+      <c r="H5" s="1"/>
+      <c r="I5" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>26</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>66</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>86</v>
       </c>
-      <c r="D6">
-        <v>-90</v>
-      </c>
-      <c r="E6">
-        <v>99</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="3">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3">
         <v>78</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="3">
         <v>79</v>
       </c>
-      <c r="J6">
+      <c r="H6" s="1"/>
+      <c r="I6" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>83</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>87</v>
       </c>
-      <c r="E7">
-        <v>99</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="1"/>
+      <c r="F7" s="3">
         <v>76</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3">
         <v>77</v>
       </c>
-      <c r="J7">
+      <c r="H7" s="1"/>
+      <c r="I7" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>63</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>81</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>84</v>
       </c>
-      <c r="E8">
-        <v>99</v>
-      </c>
-      <c r="G8">
+      <c r="E8" s="1"/>
+      <c r="F8" s="3">
         <v>74</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="3">
         <v>75</v>
       </c>
-      <c r="J8">
+      <c r="H8" s="1"/>
+      <c r="I8" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>62</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>78</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>81</v>
       </c>
-      <c r="E9">
-        <v>99</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="1"/>
+      <c r="F9" s="3">
         <v>71</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3">
         <v>72</v>
       </c>
-      <c r="J9">
+      <c r="H9" s="1"/>
+      <c r="I9" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>60</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>75</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>79</v>
       </c>
-      <c r="E10">
-        <v>99</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
         <v>69</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="3">
         <v>70</v>
       </c>
-      <c r="J10">
+      <c r="H10" s="1"/>
+      <c r="I10" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>59</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>73</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>76</v>
       </c>
-      <c r="E11">
-        <v>95</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="3">
         <v>85</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="3">
         <v>67</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="3">
         <v>68</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="3">
         <v>84</v>
       </c>
-      <c r="J11">
+      <c r="I11" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>57</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>70</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>73</v>
       </c>
-      <c r="E12">
-        <v>93</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="3">
         <v>82</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="3">
         <v>64</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="3">
         <v>65</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="3">
         <v>81</v>
       </c>
-      <c r="J12">
+      <c r="I12" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>56</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>67</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>71</v>
       </c>
-      <c r="E13">
-        <v>92</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="3">
         <v>79</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="3">
         <v>62</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="3">
         <v>63</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="3">
         <v>78</v>
       </c>
-      <c r="J13">
+      <c r="I13" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>54</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>64</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>68</v>
       </c>
-      <c r="E14">
-        <v>91</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="3">
         <v>76</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="3">
         <v>60</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="3">
         <v>60</v>
       </c>
-      <c r="I14">
+      <c r="H14" s="3">
         <v>75</v>
       </c>
-      <c r="J14">
+      <c r="I14" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>52</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>62</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>65</v>
       </c>
-      <c r="E15">
-        <v>89</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="3">
         <v>73</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="3">
         <v>57</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="3">
         <v>58</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="3">
         <v>72</v>
       </c>
-      <c r="J15">
+      <c r="I15" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>51</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>59</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>62</v>
       </c>
-      <c r="E16">
-        <v>87</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="3">
         <v>70</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="3">
         <v>55</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="3">
         <v>56</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="3">
         <v>69</v>
       </c>
-      <c r="J16">
+      <c r="I16" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>49</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>56</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>60</v>
       </c>
-      <c r="E17">
-        <v>85</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="3">
         <v>66</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="3">
         <v>52</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="3">
         <v>53</v>
       </c>
-      <c r="I17">
+      <c r="H17" s="3">
         <v>67</v>
       </c>
-      <c r="J17">
+      <c r="I17" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>48</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>54</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>57</v>
       </c>
-      <c r="E18">
-        <v>83</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="3">
         <v>63</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="3">
         <v>50</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="3">
         <v>51</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="3">
         <v>64</v>
       </c>
-      <c r="J18">
+      <c r="I18" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>46</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>51</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>54</v>
       </c>
-      <c r="E19">
-        <v>80</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="3">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="3">
         <v>48</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="3">
         <v>49</v>
       </c>
-      <c r="I19">
+      <c r="H19" s="3">
         <v>61</v>
       </c>
-      <c r="J19">
+      <c r="I19" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>12</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>48</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>52</v>
       </c>
-      <c r="E20">
-        <v>70</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="3">
         <v>57</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="3">
         <v>45</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="3">
         <v>46</v>
       </c>
-      <c r="I20">
+      <c r="H20" s="3">
         <v>58</v>
       </c>
-      <c r="J20">
+      <c r="I20" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>11</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>43</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>46</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>49</v>
       </c>
-      <c r="E21">
-        <v>64</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="3">
         <v>54</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="3">
         <v>43</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="3">
         <v>44</v>
       </c>
-      <c r="I21">
+      <c r="H21" s="3">
         <v>55</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>42</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>43</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>46</v>
       </c>
-      <c r="E22">
-        <v>55</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="3">
         <v>51</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="3">
         <v>41</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="3">
         <v>41</v>
       </c>
-      <c r="I22">
+      <c r="H22" s="3">
         <v>52</v>
       </c>
-      <c r="J22">
+      <c r="I22" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3">
         <v>43</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3">
         <v>45</v>
       </c>
-      <c r="F23">
-        <v>48</v>
-      </c>
-      <c r="I23">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <v>45</v>
-      </c>
-      <c r="I24">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="F25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3">
         <v>42</v>
       </c>
-      <c r="I25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3">
         <v>44</v>
       </c>
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:B25 C2:C25 E1 D2:F12 D14:F25 D13:E13 G13 G2:G12 G14:G25 H13 H2:H12 H14:H25 I13 I2:I12 I14:I25 J13 J2:J12 J14:J25" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>